--- a/biology/Botanique/Balsamine_de_l'Himalaya/Balsamine_de_l'Himalaya.xlsx
+++ b/biology/Botanique/Balsamine_de_l'Himalaya/Balsamine_de_l'Himalaya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Balsamine_de_l%27Himalaya</t>
+          <t>Balsamine_de_l'Himalaya</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Impatiens glandulifera
 La Balsamine de l'Himalaya, Balsamine glanduleuse, Impatiente de l'Himalaya, Impatiente glanduleuse (Impatiens glandulifera) est une espèce de plante à fleurs de la famille des Balsaminaceae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Balsamine_de_l%27Himalaya</t>
+          <t>Balsamine_de_l'Himalaya</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Balsamine de l'Himalaya est une grande plante herbacée annuelle glabre pouvant atteindre deux mètres de haut, ce qui fait d'elle la plus grande annuelle d'Europe[1]. Ses feuilles nettement dentées sont opposées ou verticillées. Les fleurs sont roses, parfois presque blanches, rouges ou pourpres en grappes lâches, odorantes, à éperon court. Les graines sont contenues dans des capsules allongées qui éclatent à maturité par détente de la tige capsulaire, projetant violemment les graines jusqu'à cinq mètres[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Balsamine de l'Himalaya est une grande plante herbacée annuelle glabre pouvant atteindre deux mètres de haut, ce qui fait d'elle la plus grande annuelle d'Europe. Ses feuilles nettement dentées sont opposées ou verticillées. Les fleurs sont roses, parfois presque blanches, rouges ou pourpres en grappes lâches, odorantes, à éperon court. Les graines sont contenues dans des capsules allongées qui éclatent à maturité par détente de la tige capsulaire, projetant violemment les graines jusqu'à cinq mètres.
 Organes reproducteurs
 Type d'inflorescence : racème simple.
 Répartition des sexes : hermaphrodite.
@@ -536,7 +550,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Balsamine_de_l%27Himalaya</t>
+          <t>Balsamine_de_l'Himalaya</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,9 +568,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme son nom l'indique, la Balsamine de l'Himalaya est native de l'Himalaya. En 1839, elle fut introduite en Europe comme plante ornementale, dans les jardins de Kew[3]. Elle fut signalée comme naturalisée en Angleterre en 1855[4]. Aujourd'hui, elle est présente dans presque tous les pays européens [5],[6], de même qu'en Amérique du Nord[1] et en Nouvelle-Zélande[7]. Elle est généralement considérée comme envahissante dans les régions où elle est naturalisée.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme son nom l'indique, la Balsamine de l'Himalaya est native de l'Himalaya. En 1839, elle fut introduite en Europe comme plante ornementale, dans les jardins de Kew. Elle fut signalée comme naturalisée en Angleterre en 1855. Aujourd'hui, elle est présente dans presque tous les pays européens  de même qu'en Amérique du Nord et en Nouvelle-Zélande. Elle est généralement considérée comme envahissante dans les régions où elle est naturalisée.
 </t>
         </is>
       </c>
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Balsamine_de_l%27Himalaya</t>
+          <t>Balsamine_de_l'Himalaya</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,14 +601,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Balsamine de l'Himalaya croît en colonies denses sur les sols humides en milieu ouvert ou légèrement ombragé. On la retrouve essentiellement en milieux forestier et riparien[6],[8].
-Les fleurs peuvent être pollinisées par les insectes, qui sont attirés par l'importante production de nectar, ou autopollinisées. Chaque individu peut produire jusqu'à 2 500 graines[9], qui sont dispersées par l'explosion de leur capsule et par hydrochorie[6].
-Espèce envahissante
-D'abord introduite dans différentes régions du monde pour son apparence agréable, la Balsamine de l'Himalaya s'est rapidement naturalisée et est désormais considérée comme une espèce envahissante dans plusieurs pays. Au Canada, elle est un problème dans plusieurs provinces dont l'Ontario[10], la Colombie-Britannique[11] et l'Alberta[12]. Elle est aussi désignée envahissante à Cuba[13], aux États-Unis dans l'état de Washington[14], ainsi que dans plusieurs pays européens comme la Belgique[15].
-Depuis 2017, la Balsamine de l'Himalaya est inscrite dans la liste des espèces exotiques envahissantes préoccupantes pour l’Union européenne[16]. Cela signifie qu'elle ne peut pas être importée, cultivée, commercialisée, plantée, ou libérée intentionnellement dans la nature, et ce nulle part dans l’Union européenne[17].
-Le potentiel envahissant de la Balsamine de l'Himalaya serait dû à son importante production de graines et de nectar, sa grande taille et sa plasticité phénotypique[18]. On soupçonne aussi qu'elle inhibe la croissance des autres plantes par allélopathie[19].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Balsamine de l'Himalaya croît en colonies denses sur les sols humides en milieu ouvert ou légèrement ombragé. On la retrouve essentiellement en milieux forestier et riparien,.
+Les fleurs peuvent être pollinisées par les insectes, qui sont attirés par l'importante production de nectar, ou autopollinisées. Chaque individu peut produire jusqu'à 2 500 graines, qui sont dispersées par l'explosion de leur capsule et par hydrochorie.
 </t>
         </is>
       </c>
@@ -603,7 +617,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Balsamine_de_l%27Himalaya</t>
+          <t>Balsamine_de_l'Himalaya</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -618,12 +632,53 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Écologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Espèce envahissante</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'abord introduite dans différentes régions du monde pour son apparence agréable, la Balsamine de l'Himalaya s'est rapidement naturalisée et est désormais considérée comme une espèce envahissante dans plusieurs pays. Au Canada, elle est un problème dans plusieurs provinces dont l'Ontario, la Colombie-Britannique et l'Alberta. Elle est aussi désignée envahissante à Cuba, aux États-Unis dans l'état de Washington, ainsi que dans plusieurs pays européens comme la Belgique.
+Depuis 2017, la Balsamine de l'Himalaya est inscrite dans la liste des espèces exotiques envahissantes préoccupantes pour l’Union européenne. Cela signifie qu'elle ne peut pas être importée, cultivée, commercialisée, plantée, ou libérée intentionnellement dans la nature, et ce nulle part dans l’Union européenne.
+Le potentiel envahissant de la Balsamine de l'Himalaya serait dû à son importante production de graines et de nectar, sa grande taille et sa plasticité phénotypique. On soupçonne aussi qu'elle inhibe la croissance des autres plantes par allélopathie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Balsamine_de_l'Himalaya</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Balsamine_de_l%27Himalaya</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Lutte biologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En raison de sa classification en tant qu'espèce exotique envahissante, notamment par l'Union européenne[16],[17]; des études, aux résultats variables, sont menées depuis 2006 par le CABI sur une variété de champignon de la famille des rouilles, Puccinia komarovii var. glanduliferae[20],[21], pathogène spécifique de cette variété de balsamine.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En raison de sa classification en tant qu'espèce exotique envahissante, notamment par l'Union européenne,; des études, aux résultats variables, sont menées depuis 2006 par le CABI sur une variété de champignon de la famille des rouilles, Puccinia komarovii var. glanduliferae pathogène spécifique de cette variété de balsamine.
 </t>
         </is>
       </c>
